--- a/testcases/Careers TC-002.xlsx
+++ b/testcases/Careers TC-002.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\luxetrainee\cypress_cucumber\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\luxetrainee\webdriverio_docker_compose_ghAction\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B23016-2D76-46EA-9BE9-410D590F2F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3B3EF5-6C71-4298-987A-1385051239E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11985" yWindow="1800" windowWidth="15555" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Description</t>
   </si>
@@ -49,12 +49,6 @@
   </si>
   <si>
     <t>Redirect to https://telnyx.com/company/careers and video "Meet the telnyx team" should be displayed at the top of the page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scroll to the headline "The Telnyx experience" </t>
-  </si>
-  <si>
-    <t>The description should include the following headings: "Flexible, global team", "Modern life, modern space", "Helping you grow", "We have fun too!"</t>
   </si>
   <si>
     <t>Click "Careers" link</t>
@@ -459,7 +453,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,10 +468,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -520,30 +514,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
